--- a/Ceramic-Capacitors-0805.xlsx
+++ b/Ceramic-Capacitors-0805.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="download (5).csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4522,7 +4522,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AH387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="27080" topLeftCell="AC1"/>
       <selection activeCell="AG2" sqref="AG2"/>
       <selection pane="topRight" activeCell="AF31" sqref="AF31"/>
